--- a/benchmark_commercial/synthesis/AI_results_aes_128.xlsx
+++ b/benchmark_commercial/synthesis/AI_results_aes_128.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Documents\GitHub\keras-scl\data\benchmark\benchmark_commercial\synthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{672DB41A-B7ED-4256-BD98-39646AD07405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585CB2DD-A03C-48AA-9C54-F9A07889327C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI_results_aes_128" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="13">
   <si>
     <t>Vth</t>
   </si>
@@ -58,34 +66,13 @@
     <t>Buf/Inv Cell</t>
   </si>
   <si>
-    <t>corresponding</t>
-  </si>
-  <si>
     <t>svt</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>nearest</t>
-  </si>
-  <si>
-    <t>freq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -941,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH321"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:AH13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,52 +982,10 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -1078,70 +1023,28 @@
       <c r="M2">
         <v>6347</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="S2" s="2">
-        <f>AVERAGE(J2:J21)</f>
-        <v>108364.15</v>
-      </c>
-      <c r="T2" s="2">
-        <f t="shared" ref="T2:V2" si="0">AVERAGE(K2:K21)</f>
-        <v>6000</v>
-      </c>
-      <c r="U2" s="2">
-        <f t="shared" si="0"/>
-        <v>114364.15</v>
-      </c>
-      <c r="V2" s="2">
-        <f t="shared" si="0"/>
-        <v>14158.65</v>
-      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <f t="array" ref="Y2">INDEX(J2:J21, MATCH(MIN(ABS(J2:J21-S2)), ABS(J2:J21-S2), 0))</f>
-        <v>109734</v>
-      </c>
-      <c r="Z2" s="2">
-        <f t="array" ref="Z2">INDEX(K2:K21, MATCH(MIN(ABS(K2:K21-T2)), ABS(K2:K21-T2), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA2" s="2">
-        <f t="array" ref="AA2">INDEX(L2:L21, MATCH(MIN(ABS(L2:L21-U2)), ABS(L2:L21-U2), 0))</f>
-        <v>115734</v>
-      </c>
-      <c r="AB2" s="2">
-        <f t="array" ref="AB2">INDEX(M2:M21, MATCH(MIN(ABS(M2:M21-V2)), ABS(M2:M21-V2), 0))</f>
-        <v>16862</v>
-      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE2" s="2">
-        <f>INDEX(D2:D21, MATCH(Y2,J2:J21, FALSE), 1)</f>
-        <v>552800000</v>
-      </c>
-      <c r="AF2" s="2">
-        <f>INDEX(D2:D21, MATCH(Z2,K2:K21, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG2" s="2">
-        <f>INDEX(D2:D21, MATCH(AA2,L2:L21, FALSE), 1)</f>
-        <v>552800000</v>
-      </c>
-      <c r="AH2" s="2">
-        <f>INDEX(D2:D21, MATCH(AB2,M2:M21, FALSE), 1)</f>
-        <v>552800000</v>
-      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -1180,65 +1083,27 @@
         <v>5816</v>
       </c>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S3" s="2">
-        <f>AVERAGE(J22:J41)</f>
-        <v>118923.2</v>
-      </c>
-      <c r="T3" s="2">
-        <f t="shared" ref="T3:V3" si="1">AVERAGE(K22:K41)</f>
-        <v>6000</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" si="1"/>
-        <v>124923.2</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" si="1"/>
-        <v>18299.8</v>
-      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <f t="array" ref="Y3">INDEX(J22:J41, MATCH(MIN(ABS(J22:J41-S3)), ABS(J22:J41-S3), 0))</f>
-        <v>121104</v>
-      </c>
-      <c r="Z3" s="2">
-        <f t="array" ref="Z3">INDEX(K22:K41, MATCH(MIN(ABS(K22:K41-T3)), ABS(K22:K41-T3), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA3" s="2">
-        <f t="array" ref="AA3">INDEX(L22:L41, MATCH(MIN(ABS(L22:L41-U3)), ABS(L22:L41-U3), 0))</f>
-        <v>127104</v>
-      </c>
-      <c r="AB3" s="2">
-        <f t="array" ref="AB3">INDEX(M22:M41, MATCH(MIN(ABS(M22:M41-V3)), ABS(M22:M41-V3), 0))</f>
-        <v>21589</v>
-      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <f>INDEX(D22:D41, MATCH(Y3,J22:J41, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AF3" s="2">
-        <f>INDEX(D22:D41, MATCH(Z3,K22:K41, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG3" s="2">
-        <f>INDEX(D22:D41, MATCH(AA3,L22:L41, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AH3" s="2">
-        <f>INDEX(D22:D41, MATCH(AB3,M22:M41, FALSE), 1)</f>
-        <v>904500000</v>
-      </c>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -1277,65 +1142,27 @@
         <v>5816</v>
       </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S4" s="2">
-        <f>AVERAGE(J42:J61)</f>
-        <v>132884.20000000001</v>
-      </c>
-      <c r="T4" s="2">
-        <f t="shared" ref="T4:V4" si="2">AVERAGE(K42:K61)</f>
-        <v>6000</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="2"/>
-        <v>138884.20000000001</v>
-      </c>
-      <c r="V4" s="2">
-        <f t="shared" si="2"/>
-        <v>23496</v>
-      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <f t="array" ref="Y4">INDEX(J42:J61, MATCH(MIN(ABS(J42:J61-S4)), ABS(J42:J61-S4), 0))</f>
-        <v>135456</v>
-      </c>
-      <c r="Z4" s="2">
-        <f t="array" ref="Z4">INDEX(K42:K61, MATCH(MIN(ABS(K42:K61-T4)), ABS(K42:K61-T4), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA4" s="2">
-        <f t="array" ref="AA4">INDEX(L42:L61, MATCH(MIN(ABS(L42:L61-U4)), ABS(L42:L61-U4), 0))</f>
-        <v>141456</v>
-      </c>
-      <c r="AB4" s="2">
-        <f t="array" ref="AB4">INDEX(M42:M61, MATCH(MIN(ABS(M42:M61-V4)), ABS(M42:M61-V4), 0))</f>
-        <v>25423</v>
-      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <f>INDEX(D42:D61, MATCH(Y4,J42:J61, FALSE), 1)</f>
-        <v>150800000</v>
-      </c>
-      <c r="AF4" s="2">
-        <f>INDEX(D42:D61, MATCH(Z4,K42:K61, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG4" s="2">
-        <f>INDEX(D42:D61, MATCH(AA4,L42:L61, FALSE), 1)</f>
-        <v>150800000</v>
-      </c>
-      <c r="AH4" s="2">
-        <f>INDEX(D42:D61, MATCH(AB4,M42:M61, FALSE), 1)</f>
-        <v>954800000</v>
-      </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
     </row>
     <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -1374,65 +1201,27 @@
         <v>5816</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S5" s="3">
-        <f>AVERAGE(J62:J81)</f>
-        <v>139201.9</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" ref="T5:V5" si="3">AVERAGE(K62:K81)</f>
-        <v>6000</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="3"/>
-        <v>145201.9</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="3"/>
-        <v>24850.5</v>
-      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="3">
-        <f t="array" ref="Y5">INDEX(J62:J81, MATCH(MIN(ABS(J62:J81-S5)), ABS(J62:J81-S5), 0))</f>
-        <v>141204</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="array" ref="Z5">INDEX(K62:K81, MATCH(MIN(ABS(K62:K81-T5)), ABS(K62:K81-T5), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="array" ref="AA5">INDEX(L62:L81, MATCH(MIN(ABS(L62:L81-U5)), ABS(L62:L81-U5), 0))</f>
-        <v>147204</v>
-      </c>
-      <c r="AB5" s="3">
-        <f t="array" ref="AB5">INDEX(M62:M81, MATCH(MIN(ABS(M62:M81-V5)), ABS(M62:M81-V5), 0))</f>
-        <v>25410</v>
-      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3">
-        <f>INDEX(D62:D81, MATCH(Y5,J62:J81, FALSE), 1)</f>
-        <v>753800000</v>
-      </c>
-      <c r="AF5" s="3">
-        <f>INDEX(D62:D81, MATCH(Z5,K62:K81, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG5" s="3">
-        <f>INDEX(D62:D81, MATCH(AA5,L62:L81, FALSE), 1)</f>
-        <v>753800000</v>
-      </c>
-      <c r="AH5" s="3">
-        <f>INDEX(D62:D81, MATCH(AB5,M62:M81, FALSE), 1)</f>
-        <v>753800000</v>
-      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -1470,68 +1259,28 @@
       <c r="M6">
         <v>5816</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="S6" s="4">
-        <f>AVERAGE(J82:J101)</f>
-        <v>102330.15</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" ref="T6:V6" si="4">AVERAGE(K82:K101)</f>
-        <v>6000</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="4"/>
-        <v>108330.15</v>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" si="4"/>
-        <v>12238.15</v>
-      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="4">
-        <f t="array" ref="Y6">INDEX(J82:J101, MATCH(MIN(ABS(J82:J101-S6)), ABS(J82:J101-S6), 0))</f>
-        <v>101593</v>
-      </c>
-      <c r="Z6" s="4">
-        <f t="array" ref="Z6">INDEX(K82:K101, MATCH(MIN(ABS(K82:K101-T6)), ABS(K82:K101-T6), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA6" s="4">
-        <f t="array" ref="AA6">INDEX(L82:L101, MATCH(MIN(ABS(L82:L101-U6)), ABS(L82:L101-U6), 0))</f>
-        <v>107593</v>
-      </c>
-      <c r="AB6" s="4">
-        <f t="array" ref="AB6">INDEX(M82:M101, MATCH(MIN(ABS(M82:M101-V6)), ABS(M82:M101-V6), 0))</f>
-        <v>12505</v>
-      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="4">
-        <f>INDEX(D82:D101, MATCH(Y6,J82:J101, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
-      <c r="AF6" s="4">
-        <f>INDEX(D82:D101, MATCH(Z6,K82:K101, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG6" s="4">
-        <f>INDEX(D82:D101, MATCH(AA6,L82:L101, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
-      <c r="AH6" s="4">
-        <f>INDEX(D82:D101, MATCH(AB6,M82:M101, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>14</v>
@@ -1570,65 +1319,27 @@
         <v>5816</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S7" s="2">
-        <f>AVERAGE(J102:J121)</f>
-        <v>119034.1</v>
-      </c>
-      <c r="T7" s="2">
-        <f t="shared" ref="T7:V7" si="5">AVERAGE(K102:K121)</f>
-        <v>6000</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" si="5"/>
-        <v>125034.1</v>
-      </c>
-      <c r="V7" s="2">
-        <f t="shared" si="5"/>
-        <v>17414.8</v>
-      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <f t="array" ref="Y7">INDEX(J102:J121, MATCH(MIN(ABS(J102:J121-S7)), ABS(J102:J121-S7), 0))</f>
-        <v>119992</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="array" ref="Z7">INDEX(K102:K121, MATCH(MIN(ABS(K102:K121-T7)), ABS(K102:K121-T7), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA7" s="2">
-        <f t="array" ref="AA7">INDEX(L102:L121, MATCH(MIN(ABS(L102:L121-U7)), ABS(L102:L121-U7), 0))</f>
-        <v>125992</v>
-      </c>
-      <c r="AB7" s="2">
-        <f t="array" ref="AB7">INDEX(M102:M121, MATCH(MIN(ABS(M102:M121-V7)), ABS(M102:M121-V7), 0))</f>
-        <v>22006</v>
-      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <f>INDEX(D102:D121, MATCH(Y7,J102:J121, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AF7" s="2">
-        <f>INDEX(D102:D121, MATCH(Z7,K102:K121, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG7" s="2">
-        <f>INDEX(D102:D121, MATCH(AA7,L102:L121, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AH7" s="2">
-        <f>INDEX(D102:D121, MATCH(AB7,M102:M121, FALSE), 1)</f>
-        <v>854300000</v>
-      </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -1667,65 +1378,27 @@
         <v>5816</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S8" s="2">
-        <f>AVERAGE(J122:J141)</f>
-        <v>124069.65</v>
-      </c>
-      <c r="T8" s="2">
-        <f t="shared" ref="T8:V8" si="6">AVERAGE(K122:K141)</f>
-        <v>6000</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" si="6"/>
-        <v>130069.65</v>
-      </c>
-      <c r="V8" s="2">
-        <f t="shared" si="6"/>
-        <v>19843.849999999999</v>
-      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <f t="array" ref="Y8">INDEX(J122:J141, MATCH(MIN(ABS(J122:J141-S8)), ABS(J122:J141-S8), 0))</f>
-        <v>124324</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="array" ref="Z8">INDEX(K122:K141, MATCH(MIN(ABS(K122:K141-T8)), ABS(K122:K141-T8), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA8" s="2">
-        <f t="array" ref="AA8">INDEX(L122:L141, MATCH(MIN(ABS(L122:L141-U8)), ABS(L122:L141-U8), 0))</f>
-        <v>130324</v>
-      </c>
-      <c r="AB8" s="2">
-        <f t="array" ref="AB8">INDEX(M122:M141, MATCH(MIN(ABS(M122:M141-V8)), ABS(M122:M141-V8), 0))</f>
-        <v>21302</v>
-      </c>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <f>INDEX(D122:D141, MATCH(Y8,J122:J141, FALSE), 1)</f>
-        <v>150800000</v>
-      </c>
-      <c r="AF8" s="2">
-        <f>INDEX(D122:D141, MATCH(Z8,K122:K141, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG8" s="2">
-        <f>INDEX(D122:D141, MATCH(AA8,L122:L141, FALSE), 1)</f>
-        <v>150800000</v>
-      </c>
-      <c r="AH8" s="2">
-        <f>INDEX(D122:D141, MATCH(AB8,M122:M141, FALSE), 1)</f>
-        <v>552800000</v>
-      </c>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
     </row>
     <row r="9" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -1764,65 +1437,27 @@
         <v>5816</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S9" s="3">
-        <f>AVERAGE(J142:J161)</f>
-        <v>137436</v>
-      </c>
-      <c r="T9" s="3">
-        <f t="shared" ref="T9:V9" si="7">AVERAGE(K142:K161)</f>
-        <v>6000</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" si="7"/>
-        <v>143436</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="7"/>
-        <v>24531.9</v>
-      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="3">
-        <f t="array" ref="Y9">INDEX(J142:J161, MATCH(MIN(ABS(J142:J161-S9)), ABS(J142:J161-S9), 0))</f>
-        <v>139107</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="array" ref="Z9">INDEX(K142:K161, MATCH(MIN(ABS(K142:K161-T9)), ABS(K142:K161-T9), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA9" s="3">
-        <f t="array" ref="AA9">INDEX(L142:L161, MATCH(MIN(ABS(L142:L161-U9)), ABS(L142:L161-U9), 0))</f>
-        <v>145107</v>
-      </c>
-      <c r="AB9" s="3">
-        <f t="array" ref="AB9">INDEX(M142:M161, MATCH(MIN(ABS(M142:M161-V9)), ABS(M142:M161-V9), 0))</f>
-        <v>25036</v>
-      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="3">
-        <f>INDEX(D142:D161, MATCH(Y9,J142:J161, FALSE), 1)</f>
-        <v>251300000</v>
-      </c>
-      <c r="AF9" s="3">
-        <f>INDEX(D142:D161, MATCH(Z9,K142:K161, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG9" s="3">
-        <f>INDEX(D142:D161, MATCH(AA9,L142:L161, FALSE), 1)</f>
-        <v>251300000</v>
-      </c>
-      <c r="AH9" s="3">
-        <f>INDEX(D142:D161, MATCH(AB9,M142:M161, FALSE), 1)</f>
-        <v>452300000</v>
-      </c>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -1860,68 +1495,28 @@
       <c r="M10">
         <v>5816</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="S10" s="4">
-        <f>AVERAGE(J162:J181)</f>
-        <v>108787.45</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" ref="T10:V10" si="8">AVERAGE(K162:K181)</f>
-        <v>6000</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="8"/>
-        <v>114787.45</v>
-      </c>
-      <c r="V10" s="4">
-        <f t="shared" si="8"/>
-        <v>14345.9</v>
-      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="4">
-        <f t="array" ref="Y10">INDEX(J162:J181, MATCH(MIN(ABS(J162:J181-S10)), ABS(J162:J181-S10), 0))</f>
-        <v>109371</v>
-      </c>
-      <c r="Z10" s="4">
-        <f t="array" ref="Z10">INDEX(K162:K181, MATCH(MIN(ABS(K162:K181-T10)), ABS(K162:K181-T10), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA10" s="4">
-        <f t="array" ref="AA10">INDEX(L162:L181, MATCH(MIN(ABS(L162:L181-U10)), ABS(L162:L181-U10), 0))</f>
-        <v>115371</v>
-      </c>
-      <c r="AB10" s="4">
-        <f t="array" ref="AB10">INDEX(M162:M181, MATCH(MIN(ABS(M162:M181-V10)), ABS(M162:M181-V10), 0))</f>
-        <v>13530</v>
-      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="4">
-        <f>INDEX(D162:D181, MATCH(Y10,J162:J181, FALSE), 1)</f>
-        <v>653300000</v>
-      </c>
-      <c r="AF10" s="4">
-        <f>INDEX(D162:D181, MATCH(Z10,K162:K181, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG10" s="4">
-        <f>INDEX(D162:D181, MATCH(AA10,L162:L181, FALSE), 1)</f>
-        <v>653300000</v>
-      </c>
-      <c r="AH10" s="4">
-        <f>INDEX(D162:D181, MATCH(AB10,M162:M181, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -1960,65 +1555,27 @@
         <v>5816</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S11" s="2">
-        <f>AVERAGE(J182:J201)</f>
-        <v>117649.15</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" ref="T11:V11" si="9">AVERAGE(K182:K201)</f>
-        <v>6000</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="9"/>
-        <v>123649.15</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="9"/>
-        <v>25045.55</v>
-      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <f t="array" ref="Y11">INDEX(J182:J201, MATCH(MIN(ABS(J182:J201-S11)), ABS(J182:J201-S11), 0))</f>
-        <v>119865</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="array" ref="Z11">INDEX(K182:K201, MATCH(MIN(ABS(K182:K201-T11)), ABS(K182:K201-T11), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA11" s="2">
-        <f t="array" ref="AA11">INDEX(L182:L201, MATCH(MIN(ABS(L182:L201-U11)), ABS(L182:L201-U11), 0))</f>
-        <v>125865</v>
-      </c>
-      <c r="AB11" s="2">
-        <f t="array" ref="AB11">INDEX(M182:M201, MATCH(MIN(ABS(M182:M201-V11)), ABS(M182:M201-V11), 0))</f>
-        <v>26139</v>
-      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
-        <f>INDEX(D182:D201, MATCH(Y11,J182:J201, FALSE), 1)</f>
-        <v>351800000</v>
-      </c>
-      <c r="AF11" s="2">
-        <f>INDEX(D182:D201, MATCH(Z11,K182:K201, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG11" s="2">
-        <f>INDEX(D182:D201, MATCH(AA11,L182:L201, FALSE), 1)</f>
-        <v>351800000</v>
-      </c>
-      <c r="AH11" s="2">
-        <f>INDEX(D182:D201, MATCH(AB11,M182:M201, FALSE), 1)</f>
-        <v>351800000</v>
-      </c>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -2057,65 +1614,27 @@
         <v>6655</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S12" s="2">
-        <f>AVERAGE(J202:J221)</f>
-        <v>125404.55</v>
-      </c>
-      <c r="T12" s="2">
-        <f t="shared" ref="T12:V12" si="10">AVERAGE(K202:K221)</f>
-        <v>6000</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" si="10"/>
-        <v>131404.54999999999</v>
-      </c>
-      <c r="V12" s="2">
-        <f t="shared" si="10"/>
-        <v>16387.650000000001</v>
-      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <f t="array" ref="Y12">INDEX(J202:J221, MATCH(MIN(ABS(J202:J221-S12)), ABS(J202:J221-S12), 0))</f>
-        <v>130992</v>
-      </c>
-      <c r="Z12" s="2">
-        <f t="array" ref="Z12">INDEX(K202:K221, MATCH(MIN(ABS(K202:K221-T12)), ABS(K202:K221-T12), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA12" s="2">
-        <f t="array" ref="AA12">INDEX(L202:L221, MATCH(MIN(ABS(L202:L221-U12)), ABS(L202:L221-U12), 0))</f>
-        <v>136992</v>
-      </c>
-      <c r="AB12" s="2">
-        <f t="array" ref="AB12">INDEX(M202:M221, MATCH(MIN(ABS(M202:M221-V12)), ABS(M202:M221-V12), 0))</f>
-        <v>16837</v>
-      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <f>INDEX(D202:D221, MATCH(Y12,J202:J221, FALSE), 1)</f>
-        <v>703500000</v>
-      </c>
-      <c r="AF12" s="2">
-        <f>INDEX(D202:D221, MATCH(Z12,K202:K221, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG12" s="2">
-        <f>INDEX(D202:D221, MATCH(AA12,L202:L221, FALSE), 1)</f>
-        <v>703500000</v>
-      </c>
-      <c r="AH12" s="2">
-        <f>INDEX(D202:D221, MATCH(AB12,M202:M221, FALSE), 1)</f>
-        <v>150800000</v>
-      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
     </row>
     <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -2154,65 +1673,27 @@
         <v>16862</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S13" s="3">
-        <f>AVERAGE(J222:J241)</f>
-        <v>140093.85</v>
-      </c>
-      <c r="T13" s="3">
-        <f t="shared" ref="T13:V13" si="11">AVERAGE(K222:K241)</f>
-        <v>6000</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="11"/>
-        <v>146093.85</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="11"/>
-        <v>21714.5</v>
-      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3">
-        <f t="array" ref="Y13">INDEX(J222:J241, MATCH(MIN(ABS(J222:J241-S13)), ABS(J222:J241-S13), 0))</f>
-        <v>141222</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="array" ref="Z13">INDEX(K222:K241, MATCH(MIN(ABS(K222:K241-T13)), ABS(K222:K241-T13), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA13" s="3">
-        <f t="array" ref="AA13">INDEX(L222:L241, MATCH(MIN(ABS(L222:L241-U13)), ABS(L222:L241-U13), 0))</f>
-        <v>147222</v>
-      </c>
-      <c r="AB13" s="3">
-        <f t="array" ref="AB13">INDEX(M222:M241, MATCH(MIN(ABS(M222:M241-V13)), ABS(M222:M241-V13), 0))</f>
-        <v>21981</v>
-      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3">
-        <f>INDEX(D222:D241, MATCH(Y13,J222:J241, FALSE), 1)</f>
-        <v>502600000</v>
-      </c>
-      <c r="AF13" s="3">
-        <f>INDEX(D222:D241, MATCH(Z13,K222:K241, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG13" s="3">
-        <f>INDEX(D222:D241, MATCH(AA13,L222:L241, FALSE), 1)</f>
-        <v>502600000</v>
-      </c>
-      <c r="AH13" s="3">
-        <f>INDEX(D222:D241, MATCH(AB13,M222:M241, FALSE), 1)</f>
-        <v>502600000</v>
-      </c>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -2250,64 +1731,10 @@
       <c r="M14">
         <v>21477</v>
       </c>
-      <c r="Q14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14">
-        <v>1.2</v>
-      </c>
-      <c r="S14">
-        <f>AVERAGE(J242:J261)</f>
-        <v>110395.45</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ref="T14:V14" si="12">AVERAGE(K242:K261)</f>
-        <v>6000</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="12"/>
-        <v>116395.45</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="12"/>
-        <v>16932.5</v>
-      </c>
-      <c r="Y14">
-        <f t="array" ref="Y14">INDEX(J242:J261, MATCH(MIN(ABS(J242:J261-S14)), ABS(J242:J261-S14), 0))</f>
-        <v>110354</v>
-      </c>
-      <c r="Z14">
-        <f t="array" ref="Z14">INDEX(K242:K261, MATCH(MIN(ABS(K242:K261-T14)), ABS(K242:K261-T14), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA14">
-        <f t="array" ref="AA14">INDEX(L242:L261, MATCH(MIN(ABS(L242:L261-U14)), ABS(L242:L261-U14), 0))</f>
-        <v>116354</v>
-      </c>
-      <c r="AB14">
-        <f t="array" ref="AB14">INDEX(M242:M261, MATCH(MIN(ABS(M242:M261-V14)), ABS(M242:M261-V14), 0))</f>
-        <v>16831</v>
-      </c>
-      <c r="AE14">
-        <f>INDEX(D242:D261, MATCH(Y14,J242:J261, FALSE), 1)</f>
-        <v>703500000</v>
-      </c>
-      <c r="AF14">
-        <f>INDEX(D242:D261, MATCH(Z14,K242:K261, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG14">
-        <f>INDEX(D242:D261, MATCH(AA14,L242:L261, FALSE), 1)</f>
-        <v>703500000</v>
-      </c>
-      <c r="AH14">
-        <f>INDEX(D242:D261, MATCH(AB14,M242:M261, FALSE), 1)</f>
-        <v>653300000</v>
-      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2345,61 +1772,10 @@
       <c r="M15">
         <v>22336</v>
       </c>
-      <c r="R15">
-        <v>0.8</v>
-      </c>
-      <c r="S15">
-        <f>AVERAGE(J262:J281)</f>
-        <v>119093.9</v>
-      </c>
-      <c r="T15">
-        <f t="shared" ref="T15:V15" si="13">AVERAGE(K262:K281)</f>
-        <v>6000</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="13"/>
-        <v>125093.9</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="13"/>
-        <v>17916.5</v>
-      </c>
-      <c r="Y15">
-        <f t="array" ref="Y15">INDEX(J262:J281, MATCH(MIN(ABS(J262:J281-S15)), ABS(J262:J281-S15), 0))</f>
-        <v>117238</v>
-      </c>
-      <c r="Z15">
-        <f t="array" ref="Z15">INDEX(K262:K281, MATCH(MIN(ABS(K262:K281-T15)), ABS(K262:K281-T15), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA15">
-        <f t="array" ref="AA15">INDEX(L262:L281, MATCH(MIN(ABS(L262:L281-U15)), ABS(L262:L281-U15), 0))</f>
-        <v>123238</v>
-      </c>
-      <c r="AB15">
-        <f t="array" ref="AB15">INDEX(M262:M281, MATCH(MIN(ABS(M262:M281-V15)), ABS(M262:M281-V15), 0))</f>
-        <v>18665</v>
-      </c>
-      <c r="AE15">
-        <f>INDEX(D262:D281, MATCH(Y15,J262:J281, FALSE), 1)</f>
-        <v>402100000</v>
-      </c>
-      <c r="AF15">
-        <f>INDEX(D262:D281, MATCH(Z15,K262:K281, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG15">
-        <f>INDEX(D262:D281, MATCH(AA15,L262:L281, FALSE), 1)</f>
-        <v>402100000</v>
-      </c>
-      <c r="AH15">
-        <f>INDEX(D262:D281, MATCH(AB15,M262:M281, FALSE), 1)</f>
-        <v>452300000</v>
-      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -2437,61 +1813,10 @@
       <c r="M16">
         <v>25535</v>
       </c>
-      <c r="R16">
-        <v>0.6</v>
-      </c>
-      <c r="S16">
-        <f>AVERAGE(J282:J301)</f>
-        <v>127573.7</v>
-      </c>
-      <c r="T16">
-        <f t="shared" ref="T16:V16" si="14">AVERAGE(K282:K301)</f>
-        <v>6000</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="14"/>
-        <v>133573.70000000001</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="14"/>
-        <v>20433.349999999999</v>
-      </c>
-      <c r="Y16">
-        <f t="array" ref="Y16">INDEX(J282:J301, MATCH(MIN(ABS(J282:J301-S16)), ABS(J282:J301-S16), 0))</f>
-        <v>129944</v>
-      </c>
-      <c r="Z16">
-        <f t="array" ref="Z16">INDEX(K282:K301, MATCH(MIN(ABS(K282:K301-T16)), ABS(K282:K301-T16), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA16">
-        <f t="array" ref="AA16">INDEX(L282:L301, MATCH(MIN(ABS(L282:L301-U16)), ABS(L282:L301-U16), 0))</f>
-        <v>135944</v>
-      </c>
-      <c r="AB16">
-        <f t="array" ref="AB16">INDEX(M282:M301, MATCH(MIN(ABS(M282:M301-V16)), ABS(M282:M301-V16), 0))</f>
-        <v>20905</v>
-      </c>
-      <c r="AE16">
-        <f>INDEX(D282:D301, MATCH(Y16,J282:J301, FALSE), 1)</f>
-        <v>452300000</v>
-      </c>
-      <c r="AF16">
-        <f>INDEX(D282:D301, MATCH(Z16,K282:K301, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG16">
-        <f>INDEX(D282:D301, MATCH(AA16,L282:L301, FALSE), 1)</f>
-        <v>452300000</v>
-      </c>
-      <c r="AH16">
-        <f>INDEX(D282:D301, MATCH(AB16,M282:M301, FALSE), 1)</f>
-        <v>150800000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -2529,61 +1854,10 @@
       <c r="M17">
         <v>29961</v>
       </c>
-      <c r="R17">
-        <v>0.4</v>
-      </c>
-      <c r="S17">
-        <f>AVERAGE(J302:J321)</f>
-        <v>134888</v>
-      </c>
-      <c r="T17">
-        <f t="shared" ref="T17:V17" si="15">AVERAGE(K302:K321)</f>
-        <v>6000</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="15"/>
-        <v>140888</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="15"/>
-        <v>19497.3</v>
-      </c>
-      <c r="Y17">
-        <f t="array" ref="Y17">INDEX(J302:J321, MATCH(MIN(ABS(J302:J321-S17)), ABS(J302:J321-S17), 0))</f>
-        <v>135292</v>
-      </c>
-      <c r="Z17">
-        <f t="array" ref="Z17">INDEX(K302:K321, MATCH(MIN(ABS(K302:K321-T17)), ABS(K302:K321-T17), 0))</f>
-        <v>6000</v>
-      </c>
-      <c r="AA17">
-        <f t="array" ref="AA17">INDEX(L302:L321, MATCH(MIN(ABS(L302:L321-U17)), ABS(L302:L321-U17), 0))</f>
-        <v>141292</v>
-      </c>
-      <c r="AB17">
-        <f t="array" ref="AB17">INDEX(M302:M321, MATCH(MIN(ABS(M302:M321-V17)), ABS(M302:M321-V17), 0))</f>
-        <v>19452</v>
-      </c>
-      <c r="AE17">
-        <f>INDEX(D302:D321, MATCH(Y17,J302:J321, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AF17">
-        <f>INDEX(D302:D321, MATCH(Z17,K302:K321, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG17">
-        <f>INDEX(D302:D321, MATCH(AA17,L302:L321, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AH17">
-        <f>INDEX(D302:D321, MATCH(AB17,M302:M321, FALSE), 1)</f>
-        <v>402100000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>14</v>
@@ -2622,9 +1896,9 @@
         <v>27583</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -2663,9 +1937,9 @@
         <v>24120</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>14</v>
@@ -2704,9 +1978,9 @@
         <v>24441</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -2745,9 +2019,9 @@
         <v>25512</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -2786,9 +2060,9 @@
         <v>6251</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2827,9 +2101,9 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -2868,9 +2142,9 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -2909,9 +2183,9 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>14</v>
@@ -2950,9 +2224,9 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>14</v>
@@ -2991,9 +2265,9 @@
         <v>13356</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>14</v>
@@ -3032,9 +2306,9 @@
         <v>24293</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>14</v>
@@ -3073,9 +2347,9 @@
         <v>28599</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>14</v>
@@ -3114,9 +2388,9 @@
         <v>23211</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>14</v>
@@ -3155,9 +2429,9 @@
         <v>22338</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>14</v>
@@ -3198,7 +2472,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -3239,7 +2513,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>14</v>
@@ -3280,7 +2554,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>14</v>
@@ -3321,7 +2595,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>14</v>
@@ -3362,7 +2636,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>14</v>
@@ -3403,7 +2677,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>14</v>
@@ -3444,7 +2718,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>14</v>
@@ -3485,7 +2759,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>14</v>
@@ -3526,7 +2800,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>14</v>
@@ -3567,7 +2841,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>14</v>
@@ -3608,7 +2882,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>14</v>
@@ -3649,7 +2923,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>14</v>
@@ -3690,7 +2964,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>14</v>
@@ -3731,7 +3005,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>14</v>
@@ -3772,7 +3046,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>14</v>
@@ -3813,7 +3087,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>14</v>
@@ -3854,7 +3128,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>14</v>
@@ -3895,7 +3169,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>14</v>
@@ -3936,7 +3210,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>14</v>
@@ -3977,7 +3251,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>14</v>
@@ -4018,7 +3292,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>14</v>
@@ -4059,7 +3333,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>14</v>
@@ -4100,7 +3374,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>14</v>
@@ -4141,7 +3415,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>14</v>
@@ -4182,7 +3456,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>14</v>
@@ -4223,7 +3497,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>14</v>
@@ -4264,7 +3538,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>14</v>
@@ -4305,7 +3579,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>14</v>
@@ -4346,7 +3620,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>14</v>
@@ -4387,7 +3661,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62">
         <v>14</v>
@@ -4428,7 +3702,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63">
         <v>14</v>
@@ -4469,7 +3743,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>14</v>
@@ -4510,7 +3784,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>14</v>
@@ -4551,7 +3825,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66">
         <v>14</v>
@@ -4592,7 +3866,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67">
         <v>14</v>
@@ -4633,7 +3907,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68">
         <v>14</v>
@@ -4674,7 +3948,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69">
         <v>14</v>
@@ -4715,7 +3989,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>14</v>
@@ -4756,7 +4030,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71">
         <v>14</v>
@@ -4797,7 +4071,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72">
         <v>14</v>
@@ -4838,7 +4112,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73">
         <v>14</v>
@@ -4879,7 +4153,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74">
         <v>14</v>
@@ -4920,7 +4194,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75">
         <v>14</v>
@@ -4961,7 +4235,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76">
         <v>14</v>
@@ -5002,7 +4276,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77">
         <v>14</v>
@@ -5043,7 +4317,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78">
         <v>14</v>
@@ -5084,7 +4358,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79">
         <v>14</v>
@@ -5125,7 +4399,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80">
         <v>14</v>
@@ -5166,7 +4440,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81">
         <v>14</v>
@@ -5207,7 +4481,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82">
         <v>12</v>
@@ -5248,7 +4522,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83">
         <v>12</v>
@@ -5289,7 +4563,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84">
         <v>12</v>
@@ -5330,7 +4604,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85">
         <v>12</v>
@@ -5371,7 +4645,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86">
         <v>12</v>
@@ -5412,7 +4686,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87">
         <v>12</v>
@@ -5453,7 +4727,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88">
         <v>12</v>
@@ -5494,7 +4768,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89">
         <v>12</v>
@@ -5535,7 +4809,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90">
         <v>12</v>
@@ -5576,7 +4850,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91">
         <v>12</v>
@@ -5617,7 +4891,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92">
         <v>12</v>
@@ -5658,7 +4932,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93">
         <v>12</v>
@@ -5699,7 +4973,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94">
         <v>12</v>
@@ -5740,7 +5014,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95">
         <v>12</v>
@@ -5781,7 +5055,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96">
         <v>12</v>
@@ -5822,7 +5096,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97">
         <v>12</v>
@@ -5863,7 +5137,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98">
         <v>12</v>
@@ -5904,7 +5178,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99">
         <v>12</v>
@@ -5945,7 +5219,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100">
         <v>12</v>
@@ -5986,7 +5260,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101">
         <v>12</v>
@@ -6027,7 +5301,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102">
         <v>12</v>
@@ -6068,7 +5342,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103">
         <v>12</v>
@@ -6109,7 +5383,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104">
         <v>12</v>
@@ -6150,7 +5424,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105">
         <v>12</v>
@@ -6191,7 +5465,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106">
         <v>12</v>
@@ -6232,7 +5506,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107">
         <v>12</v>
@@ -6273,7 +5547,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108">
         <v>12</v>
@@ -6314,7 +5588,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109">
         <v>12</v>
@@ -6355,7 +5629,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B110">
         <v>12</v>
@@ -6396,7 +5670,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B111">
         <v>12</v>
@@ -6437,7 +5711,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B112">
         <v>12</v>
@@ -6478,7 +5752,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B113">
         <v>12</v>
@@ -6519,7 +5793,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B114">
         <v>12</v>
@@ -6560,7 +5834,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B115">
         <v>12</v>
@@ -6601,7 +5875,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B116">
         <v>12</v>
@@ -6642,7 +5916,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B117">
         <v>12</v>
@@ -6683,7 +5957,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B118">
         <v>12</v>
@@ -6724,7 +5998,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B119">
         <v>12</v>
@@ -6765,7 +6039,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B120">
         <v>12</v>
@@ -6806,7 +6080,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B121">
         <v>12</v>
@@ -6847,7 +6121,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B122">
         <v>12</v>
@@ -6888,7 +6162,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B123">
         <v>12</v>
@@ -6929,7 +6203,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B124">
         <v>12</v>
@@ -6970,7 +6244,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B125">
         <v>12</v>
@@ -7011,7 +6285,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B126">
         <v>12</v>
@@ -7052,7 +6326,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B127">
         <v>12</v>
@@ -7093,7 +6367,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B128">
         <v>12</v>
@@ -7134,7 +6408,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B129">
         <v>12</v>
@@ -7175,7 +6449,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B130">
         <v>12</v>
@@ -7216,7 +6490,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B131">
         <v>12</v>
@@ -7257,7 +6531,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B132">
         <v>12</v>
@@ -7298,7 +6572,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -7339,7 +6613,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -7380,7 +6654,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B135">
         <v>12</v>
@@ -7421,7 +6695,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B136">
         <v>12</v>
@@ -7462,7 +6736,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B137">
         <v>12</v>
@@ -7503,7 +6777,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B138">
         <v>12</v>
@@ -7544,7 +6818,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B139">
         <v>12</v>
@@ -7585,7 +6859,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B140">
         <v>12</v>
@@ -7626,7 +6900,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B141">
         <v>12</v>
@@ -7667,7 +6941,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B142">
         <v>12</v>
@@ -7708,7 +6982,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B143">
         <v>12</v>
@@ -7749,7 +7023,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B144">
         <v>12</v>
@@ -7790,7 +7064,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B145">
         <v>12</v>
@@ -7831,7 +7105,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B146">
         <v>12</v>
@@ -7872,7 +7146,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B147">
         <v>12</v>
@@ -7913,7 +7187,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B148">
         <v>12</v>
@@ -7954,7 +7228,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B149">
         <v>12</v>
@@ -7995,7 +7269,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B150">
         <v>12</v>
@@ -8036,7 +7310,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B151">
         <v>12</v>
@@ -8077,7 +7351,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B152">
         <v>12</v>
@@ -8118,7 +7392,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B153">
         <v>12</v>
@@ -8159,7 +7433,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B154">
         <v>12</v>
@@ -8200,7 +7474,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B155">
         <v>12</v>
@@ -8241,7 +7515,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B156">
         <v>12</v>
@@ -8282,7 +7556,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B157">
         <v>12</v>
@@ -8323,7 +7597,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B158">
         <v>12</v>
@@ -8364,7 +7638,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B159">
         <v>12</v>
@@ -8405,7 +7679,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B160">
         <v>12</v>
@@ -8446,7 +7720,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B161">
         <v>12</v>
@@ -8487,7 +7761,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B162">
         <v>9</v>
@@ -8528,7 +7802,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B163">
         <v>9</v>
@@ -8569,7 +7843,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B164">
         <v>9</v>
@@ -8610,7 +7884,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B165">
         <v>9</v>
@@ -8651,7 +7925,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B166">
         <v>9</v>
@@ -8692,7 +7966,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B167">
         <v>9</v>
@@ -8733,7 +8007,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B168">
         <v>9</v>
@@ -8774,7 +8048,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B169">
         <v>9</v>
@@ -8815,7 +8089,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B170">
         <v>9</v>
@@ -8856,7 +8130,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B171">
         <v>9</v>
@@ -8897,7 +8171,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B172">
         <v>9</v>
@@ -8938,7 +8212,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B173">
         <v>9</v>
@@ -8979,7 +8253,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B174">
         <v>9</v>
@@ -9020,7 +8294,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B175">
         <v>9</v>
@@ -9061,7 +8335,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B176">
         <v>9</v>
@@ -9102,7 +8376,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B177">
         <v>9</v>
@@ -9143,7 +8417,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B178">
         <v>9</v>
@@ -9184,7 +8458,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B179">
         <v>9</v>
@@ -9225,7 +8499,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B180">
         <v>9</v>
@@ -9266,7 +8540,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B181">
         <v>9</v>
@@ -9307,7 +8581,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B182">
         <v>9</v>
@@ -9348,7 +8622,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B183">
         <v>9</v>
@@ -9389,7 +8663,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B184">
         <v>9</v>
@@ -9430,7 +8704,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B185">
         <v>9</v>
@@ -9471,7 +8745,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B186">
         <v>9</v>
@@ -9512,7 +8786,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B187">
         <v>9</v>
@@ -9553,7 +8827,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B188">
         <v>9</v>
@@ -9594,7 +8868,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B189">
         <v>9</v>
@@ -9635,7 +8909,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B190">
         <v>9</v>
@@ -9676,7 +8950,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B191">
         <v>9</v>
@@ -9717,7 +8991,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B192">
         <v>9</v>
@@ -9758,7 +9032,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B193">
         <v>9</v>
@@ -9799,7 +9073,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B194">
         <v>9</v>
@@ -9840,7 +9114,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B195">
         <v>9</v>
@@ -9881,7 +9155,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B196">
         <v>9</v>
@@ -9922,7 +9196,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B197">
         <v>9</v>
@@ -9963,7 +9237,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B198">
         <v>9</v>
@@ -10004,7 +9278,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B199">
         <v>9</v>
@@ -10045,7 +9319,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B200">
         <v>9</v>
@@ -10086,7 +9360,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B201">
         <v>9</v>
@@ -10127,7 +9401,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B202">
         <v>9</v>
@@ -10168,7 +9442,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B203">
         <v>9</v>
@@ -10209,7 +9483,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B204">
         <v>9</v>
@@ -10250,7 +9524,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B205">
         <v>9</v>
@@ -10291,7 +9565,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B206">
         <v>9</v>
@@ -10332,7 +9606,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B207">
         <v>9</v>
@@ -10373,7 +9647,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B208">
         <v>9</v>
@@ -10414,7 +9688,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B209">
         <v>9</v>
@@ -10455,7 +9729,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B210">
         <v>9</v>
@@ -10496,7 +9770,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B211">
         <v>9</v>
@@ -10537,7 +9811,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B212">
         <v>9</v>
@@ -10578,7 +9852,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B213">
         <v>9</v>
@@ -10619,7 +9893,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B214">
         <v>9</v>
@@ -10660,7 +9934,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B215">
         <v>9</v>
@@ -10701,7 +9975,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B216">
         <v>9</v>
@@ -10742,7 +10016,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B217">
         <v>9</v>
@@ -10783,7 +10057,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B218">
         <v>9</v>
@@ -10824,7 +10098,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B219">
         <v>9</v>
@@ -10865,7 +10139,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B220">
         <v>9</v>
@@ -10906,7 +10180,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B221">
         <v>9</v>
@@ -10947,7 +10221,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B222">
         <v>9</v>
@@ -10988,7 +10262,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B223">
         <v>9</v>
@@ -11029,7 +10303,7 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B224">
         <v>9</v>
@@ -11070,7 +10344,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B225">
         <v>9</v>
@@ -11111,7 +10385,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B226">
         <v>9</v>
@@ -11152,7 +10426,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B227">
         <v>9</v>
@@ -11193,7 +10467,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B228">
         <v>9</v>
@@ -11234,7 +10508,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B229">
         <v>9</v>
@@ -11275,7 +10549,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B230">
         <v>9</v>
@@ -11316,7 +10590,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B231">
         <v>9</v>
@@ -11357,7 +10631,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B232">
         <v>9</v>
@@ -11398,7 +10672,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B233">
         <v>9</v>
@@ -11439,7 +10713,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B234">
         <v>9</v>
@@ -11480,7 +10754,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B235">
         <v>9</v>
@@ -11521,7 +10795,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B236">
         <v>9</v>
@@ -11562,7 +10836,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B237">
         <v>9</v>
@@ -11603,7 +10877,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B238">
         <v>9</v>
@@ -11644,7 +10918,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B239">
         <v>9</v>
@@ -11685,7 +10959,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B240">
         <v>9</v>
@@ -11726,7 +11000,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B241">
         <v>9</v>
@@ -11767,7 +11041,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B242">
         <v>7</v>
@@ -11808,7 +11082,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B243">
         <v>7</v>
@@ -11849,7 +11123,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B244">
         <v>7</v>
@@ -11890,7 +11164,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B245">
         <v>7</v>
@@ -11931,7 +11205,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B246">
         <v>7</v>
@@ -11972,7 +11246,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B247">
         <v>7</v>
@@ -12013,7 +11287,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B248">
         <v>7</v>
@@ -12054,7 +11328,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B249">
         <v>7</v>
@@ -12095,7 +11369,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B250">
         <v>7</v>
@@ -12136,7 +11410,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B251">
         <v>7</v>
@@ -12177,7 +11451,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B252">
         <v>7</v>
@@ -12218,7 +11492,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B253">
         <v>7</v>
@@ -12259,7 +11533,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B254">
         <v>7</v>
@@ -12300,7 +11574,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B255">
         <v>7</v>
@@ -12341,7 +11615,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B256">
         <v>7</v>
@@ -12382,7 +11656,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B257">
         <v>7</v>
@@ -12423,7 +11697,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B258">
         <v>7</v>
@@ -12464,7 +11738,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B259">
         <v>7</v>
@@ -12505,7 +11779,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B260">
         <v>7</v>
@@ -12546,7 +11820,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B261">
         <v>7</v>
@@ -12587,7 +11861,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -12628,7 +11902,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B263">
         <v>7</v>
@@ -12669,7 +11943,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B264">
         <v>7</v>
@@ -12710,7 +11984,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B265">
         <v>7</v>
@@ -12751,7 +12025,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B266">
         <v>7</v>
@@ -12792,7 +12066,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B267">
         <v>7</v>
@@ -12833,7 +12107,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B268">
         <v>7</v>
@@ -12874,7 +12148,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B269">
         <v>7</v>
@@ -12915,7 +12189,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B270">
         <v>7</v>
@@ -12956,7 +12230,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B271">
         <v>7</v>
@@ -12997,7 +12271,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B272">
         <v>7</v>
@@ -13038,7 +12312,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B273">
         <v>7</v>
@@ -13079,7 +12353,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B274">
         <v>7</v>
@@ -13120,7 +12394,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B275">
         <v>7</v>
@@ -13161,7 +12435,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B276">
         <v>7</v>
@@ -13202,7 +12476,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B277">
         <v>7</v>
@@ -13243,7 +12517,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B278">
         <v>7</v>
@@ -13284,7 +12558,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B279">
         <v>7</v>
@@ -13325,7 +12599,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B280">
         <v>7</v>
@@ -13366,7 +12640,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B281">
         <v>7</v>
@@ -13407,7 +12681,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B282">
         <v>7</v>
@@ -13448,7 +12722,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B283">
         <v>7</v>
@@ -13489,7 +12763,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B284">
         <v>7</v>
@@ -13530,7 +12804,7 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B285">
         <v>7</v>
@@ -13571,7 +12845,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B286">
         <v>7</v>
@@ -13612,7 +12886,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B287">
         <v>7</v>
@@ -13653,7 +12927,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B288">
         <v>7</v>
@@ -13694,7 +12968,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B289">
         <v>7</v>
@@ -13735,7 +13009,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B290">
         <v>7</v>
@@ -13776,7 +13050,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B291">
         <v>7</v>
@@ -13817,7 +13091,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B292">
         <v>7</v>
@@ -13858,7 +13132,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B293">
         <v>7</v>
@@ -13899,7 +13173,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B294">
         <v>7</v>
@@ -13940,7 +13214,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B295">
         <v>7</v>
@@ -13981,7 +13255,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B296">
         <v>7</v>
@@ -14022,7 +13296,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B297">
         <v>7</v>
@@ -14063,7 +13337,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B298">
         <v>7</v>
@@ -14104,7 +13378,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B299">
         <v>7</v>
@@ -14145,7 +13419,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B300">
         <v>7</v>
@@ -14186,7 +13460,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B301">
         <v>7</v>
@@ -14227,7 +13501,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B302">
         <v>7</v>
@@ -14268,7 +13542,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B303">
         <v>7</v>
@@ -14309,7 +13583,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B304">
         <v>7</v>
@@ -14350,7 +13624,7 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B305">
         <v>7</v>
@@ -14391,7 +13665,7 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B306">
         <v>7</v>
@@ -14432,7 +13706,7 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B307">
         <v>7</v>
@@ -14473,7 +13747,7 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B308">
         <v>7</v>
@@ -14514,7 +13788,7 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B309">
         <v>7</v>
@@ -14555,7 +13829,7 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -14596,7 +13870,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B311">
         <v>7</v>
@@ -14637,7 +13911,7 @@
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B312">
         <v>7</v>
@@ -14678,7 +13952,7 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B313">
         <v>7</v>
@@ -14719,7 +13993,7 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B314">
         <v>7</v>
@@ -14760,7 +14034,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B315">
         <v>7</v>
@@ -14801,7 +14075,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B316">
         <v>7</v>
@@ -14842,7 +14116,7 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B317">
         <v>7</v>
@@ -14883,7 +14157,7 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B318">
         <v>7</v>
@@ -14924,7 +14198,7 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B319">
         <v>7</v>
@@ -14965,7 +14239,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B320">
         <v>7</v>
@@ -15006,7 +14280,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B321">
         <v>7</v>
